--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_40_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_40_7.xlsx
@@ -518,1211 +518,1211 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_0</t>
+          <t>model_40_7_6</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9473226676101602</v>
+        <v>0.9600662648761593</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8042223057875149</v>
+        <v>0.7489052722205892</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.43185542970844</v>
+        <v>0.9588505644422584</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3536366633509785</v>
+        <v>0.9328501891641869</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3061709005358522</v>
+        <v>0.9397303205602278</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3522535642476718</v>
+        <v>0.267037070651065</v>
       </c>
       <c r="H2" t="n">
-        <v>1.30916634267228</v>
+        <v>1.67907160084583</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5107575658851335</v>
+        <v>0.1751363927139539</v>
       </c>
       <c r="J2" t="n">
-        <v>1.436538862972941</v>
+        <v>0.8335509813541433</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9736482144290369</v>
+        <v>0.5043435899762159</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3618075427782936</v>
+        <v>0.795981336020291</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5935095317243623</v>
+        <v>0.5167562971566626</v>
       </c>
       <c r="N2" t="n">
-        <v>1.038310787192611</v>
+        <v>1.029042716453702</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6187764612239711</v>
+        <v>0.5387556825596256</v>
       </c>
       <c r="P2" t="n">
-        <v>116.0868080194747</v>
+        <v>116.6407355776594</v>
       </c>
       <c r="Q2" t="n">
-        <v>185.5627300369622</v>
+        <v>186.1166575951468</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_1</t>
+          <t>model_40_7_5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9472653041187745</v>
+        <v>0.9599498046567472</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8031826965895866</v>
+        <v>0.7488624893330063</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.686110776728176</v>
+        <v>0.9624917397862216</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3547526114943705</v>
+        <v>0.9437021758622052</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2880277833409233</v>
+        <v>0.9487052239260522</v>
       </c>
       <c r="G3" t="n">
-        <v>0.352637154178702</v>
+        <v>0.2678158406745242</v>
       </c>
       <c r="H3" t="n">
-        <v>1.316118214165785</v>
+        <v>1.679357690212094</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5641582905214042</v>
+        <v>0.1596391615530096</v>
       </c>
       <c r="J3" t="n">
-        <v>1.4340586745307</v>
+        <v>0.6988419769774572</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9991083942840793</v>
+        <v>0.4292405692652334</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3530097698466576</v>
+        <v>0.7670337053823689</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5938325977737345</v>
+        <v>0.5175092662692371</v>
       </c>
       <c r="N3" t="n">
-        <v>1.038352506095437</v>
+        <v>1.029127414795093</v>
       </c>
       <c r="O3" t="n">
-        <v>0.619113280863904</v>
+        <v>0.5395407071261833</v>
       </c>
       <c r="P3" t="n">
-        <v>116.084631285074</v>
+        <v>116.6349113926746</v>
       </c>
       <c r="Q3" t="n">
-        <v>185.5605533025614</v>
+        <v>186.110833410162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_2</t>
+          <t>model_40_7_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9470587935555396</v>
+        <v>0.9595499056688669</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8020215011807359</v>
+        <v>0.7484412315936535</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.921766911181491</v>
+        <v>0.9551987671943265</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3554814161368632</v>
+        <v>0.9222491200520395</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2709696419793215</v>
+        <v>0.930938873440024</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3540180912659476</v>
+        <v>0.2704899670478454</v>
       </c>
       <c r="H4" t="n">
-        <v>1.323883133211584</v>
+        <v>1.682174642654859</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6136526610127067</v>
+        <v>0.1906788318326649</v>
       </c>
       <c r="J4" t="n">
-        <v>1.432438910331382</v>
+        <v>0.9651452695858656</v>
       </c>
       <c r="K4" t="n">
-        <v>1.023046030931243</v>
+        <v>0.5779114277829599</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3450492957692818</v>
+        <v>0.8227603617028356</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5949941943128081</v>
+        <v>0.5200864995823727</v>
       </c>
       <c r="N4" t="n">
-        <v>1.038502695595971</v>
+        <v>1.029418250422642</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6203243289724822</v>
+        <v>0.5422276585970676</v>
       </c>
       <c r="P4" t="n">
-        <v>116.0768145237663</v>
+        <v>116.6150405435592</v>
       </c>
       <c r="Q4" t="n">
-        <v>185.5527365412537</v>
+        <v>186.0909625610466</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_3</t>
+          <t>model_40_7_4</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9467486908641516</v>
+        <v>0.9589686752130128</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8007989742743347</v>
+        <v>0.7481189381015276</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.139263193795903</v>
+        <v>0.966023201763667</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3559193263001744</v>
+        <v>0.9546192512696391</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2550409032337924</v>
+        <v>0.9577004840001873</v>
       </c>
       <c r="G5" t="n">
-        <v>0.356091749391151</v>
+        <v>0.2743766577824622</v>
       </c>
       <c r="H5" t="n">
-        <v>1.332058176263907</v>
+        <v>1.68432982072073</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6593329553838734</v>
+        <v>0.1446088821979403</v>
       </c>
       <c r="J5" t="n">
-        <v>1.431465657468141</v>
+        <v>0.5633250066968727</v>
       </c>
       <c r="K5" t="n">
-        <v>1.045398780404664</v>
+        <v>0.3539672012843635</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3378691372246797</v>
+        <v>0.7359677826193106</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5967342368183268</v>
+        <v>0.5238097534243346</v>
       </c>
       <c r="N5" t="n">
-        <v>1.038728224826072</v>
+        <v>1.029840963481445</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6221384486898456</v>
+        <v>0.5461094190632797</v>
       </c>
       <c r="P5" t="n">
-        <v>116.0651337166523</v>
+        <v>116.5865069062784</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.5410557341397</v>
+        <v>186.0624289237658</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_4</t>
+          <t>model_40_7_8</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9463699916514415</v>
+        <v>0.9585817745416445</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7995585058678596</v>
+        <v>0.7476196947540364</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.339285071630253</v>
+        <v>0.9516087259460039</v>
       </c>
       <c r="E6" t="n">
-        <v>0.356143689373439</v>
+        <v>0.9120306018148749</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2402500878297448</v>
+        <v>0.9224467508002436</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3586241127702924</v>
+        <v>0.2769638643534154</v>
       </c>
       <c r="H6" t="n">
-        <v>1.340353194209838</v>
+        <v>1.687668263284208</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7013431366629039</v>
+        <v>0.2059584308211679</v>
       </c>
       <c r="J6" t="n">
-        <v>1.430967011805732</v>
+        <v>1.091990837705188</v>
       </c>
       <c r="K6" t="n">
-        <v>1.066154685596911</v>
+        <v>0.6489744840075271</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3313894651021436</v>
+        <v>0.8473970973748824</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5988523296859521</v>
+        <v>0.52627356417876</v>
       </c>
       <c r="N6" t="n">
-        <v>1.039003642435315</v>
+        <v>1.030122345787895</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6243467131559024</v>
+        <v>0.5486781193423124</v>
       </c>
       <c r="P6" t="n">
-        <v>116.0509609573197</v>
+        <v>116.5677364698048</v>
       </c>
       <c r="Q6" t="n">
-        <v>185.5268829748071</v>
+        <v>186.0436584872922</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_5</t>
+          <t>model_40_7_9</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9459489703637617</v>
+        <v>0.9573027240732105</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7983309070366605</v>
+        <v>0.7465551639112555</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.522709996459422</v>
+        <v>0.948131372292029</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3562101451772689</v>
+        <v>0.9022845106646302</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2265759844045324</v>
+        <v>0.9143337339782849</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3614394840596326</v>
+        <v>0.2855168807253196</v>
       </c>
       <c r="H7" t="n">
-        <v>1.348562153246639</v>
+        <v>1.694786785931598</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7398674942311669</v>
+        <v>0.2207584193724874</v>
       </c>
       <c r="J7" t="n">
-        <v>1.430819314157275</v>
+        <v>1.2129720250166</v>
       </c>
       <c r="K7" t="n">
-        <v>1.085343512347127</v>
+        <v>0.7168651392683202</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3255530545476566</v>
+        <v>0.869959545270238</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6011983733008869</v>
+        <v>0.5343377964596175</v>
       </c>
       <c r="N7" t="n">
-        <v>1.039309839735446</v>
+        <v>1.031052564310392</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6267926327045047</v>
+        <v>0.5570856626866281</v>
       </c>
       <c r="P7" t="n">
-        <v>116.0353213074426</v>
+        <v>116.5069082495004</v>
       </c>
       <c r="Q7" t="n">
-        <v>185.5112433249301</v>
+        <v>185.9828302669879</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_6</t>
+          <t>model_40_7_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9455055965600287</v>
+        <v>0.9568275312572827</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7971375419021259</v>
+        <v>0.7464231191479946</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.69053043863059</v>
+        <v>0.9693092262197993</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3561643154962616</v>
+        <v>0.965347214927736</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2139811510942475</v>
+        <v>0.9664931066458173</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3644043267267431</v>
+        <v>0.28869449727349</v>
       </c>
       <c r="H8" t="n">
-        <v>1.356542191396213</v>
+        <v>1.695669769871534</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7751144745828688</v>
+        <v>0.1306232111476219</v>
       </c>
       <c r="J8" t="n">
-        <v>1.430921170364321</v>
+        <v>0.4301555379547651</v>
       </c>
       <c r="K8" t="n">
-        <v>1.103017802706325</v>
+        <v>0.2803895265460295</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3202951887997972</v>
+        <v>0.702969518942124</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6036591146721327</v>
+        <v>0.5373029846124903</v>
       </c>
       <c r="N8" t="n">
-        <v>1.039632293410888</v>
+        <v>1.031398159085612</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6293581329303614</v>
+        <v>0.5601770850379544</v>
       </c>
       <c r="P8" t="n">
-        <v>116.0189824802055</v>
+        <v>116.4847725057138</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.4949044976929</v>
+        <v>185.9606945232012</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_7</t>
+          <t>model_40_7_10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.945054637816201</v>
+        <v>0.9558211553337047</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7959928512809091</v>
+        <v>0.7453351735146942</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.843755518943162</v>
+        <v>0.9448023146575679</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3560387734702323</v>
+        <v>0.8930670580433211</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2024158624908877</v>
+        <v>0.9066505039434015</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3674198899231935</v>
+        <v>0.2954241377083912</v>
       </c>
       <c r="H9" t="n">
-        <v>1.364196742851106</v>
+        <v>1.702944867330942</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8072960212722566</v>
+        <v>0.2349272442259471</v>
       </c>
       <c r="J9" t="n">
-        <v>1.431200186807708</v>
+        <v>1.327391061830623</v>
       </c>
       <c r="K9" t="n">
-        <v>1.119247336184691</v>
+        <v>0.7811592894019448</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3155608667703195</v>
+        <v>0.8905625099605206</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6061517053701933</v>
+        <v>0.5435293347266468</v>
       </c>
       <c r="N9" t="n">
-        <v>1.039960263406399</v>
+        <v>1.032130068848215</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6319568383748123</v>
+        <v>0.566668503766792</v>
       </c>
       <c r="P9" t="n">
-        <v>116.0024999413907</v>
+        <v>116.4386864005573</v>
       </c>
       <c r="Q9" t="n">
-        <v>185.4784219588781</v>
+        <v>185.9146084180447</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_8</t>
+          <t>model_40_7_11</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9446069645047592</v>
+        <v>0.9542202305996799</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7949061767508556</v>
+        <v>0.7440259138982013</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.983424677818372</v>
+        <v>0.9416441149961059</v>
       </c>
       <c r="E10" t="n">
-        <v>0.355862059558123</v>
+        <v>0.8844101633320833</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1918238362521644</v>
+        <v>0.8994266310950907</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3704134834181509</v>
+        <v>0.3061295287763962</v>
       </c>
       <c r="H10" t="n">
-        <v>1.37146334043725</v>
+        <v>1.711699892415017</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8366304458210378</v>
+        <v>0.2483688792977757</v>
       </c>
       <c r="J10" t="n">
-        <v>1.431592932478725</v>
+        <v>1.434851723181931</v>
       </c>
       <c r="K10" t="n">
-        <v>1.134111093617874</v>
+        <v>0.8416094859139335</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3112997943191467</v>
+        <v>0.9093191390821248</v>
       </c>
       <c r="M10" t="n">
-        <v>0.608616039402636</v>
+        <v>0.5532897331203572</v>
       </c>
       <c r="N10" t="n">
-        <v>1.040285843996539</v>
+        <v>1.033294377745687</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6345260842088909</v>
+        <v>0.5768444225269328</v>
       </c>
       <c r="P10" t="n">
-        <v>115.9862707491117</v>
+        <v>116.3674939398792</v>
       </c>
       <c r="Q10" t="n">
-        <v>185.4621927665991</v>
+        <v>185.8434159573667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_9</t>
+          <t>model_40_7_2</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9441701558227353</v>
+        <v>0.9531514577322003</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7938828930460553</v>
+        <v>0.7434489449105368</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.110552940188062</v>
+        <v>0.9721641496946045</v>
       </c>
       <c r="E11" t="n">
-        <v>0.355649447324809</v>
+        <v>0.9755459245172237</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1821416159874711</v>
+        <v>0.9747835518368758</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3733344250861633</v>
+        <v>0.3132764178624782</v>
       </c>
       <c r="H11" t="n">
-        <v>1.378306043283038</v>
+        <v>1.715558086692227</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8633309318161835</v>
+        <v>0.1184723519177264</v>
       </c>
       <c r="J11" t="n">
-        <v>1.43206546196575</v>
+        <v>0.3035558605908271</v>
       </c>
       <c r="K11" t="n">
-        <v>1.147698123161183</v>
+        <v>0.2110141303430709</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3074627839986659</v>
+        <v>0.6684058983914006</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6110109860601225</v>
+        <v>0.5597110128115028</v>
       </c>
       <c r="N11" t="n">
-        <v>1.040603523038011</v>
+        <v>1.034071667103854</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6370229887038097</v>
+        <v>0.5835390693884118</v>
       </c>
       <c r="P11" t="n">
-        <v>115.9705613580549</v>
+        <v>116.3213387080108</v>
       </c>
       <c r="Q11" t="n">
-        <v>185.4464833755423</v>
+        <v>185.7972607254983</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_10</t>
+          <t>model_40_7_12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9437497391826</v>
+        <v>0.9525625511581319</v>
       </c>
       <c r="C12" t="n">
-        <v>0.792925582902291</v>
+        <v>0.74267716100519</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.226113907213654</v>
+        <v>0.9386703859613679</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3554153862304229</v>
+        <v>0.8763260327120376</v>
       </c>
       <c r="F12" t="n">
-        <v>0.173308405605036</v>
+        <v>0.892674300960575</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3761457530945889</v>
+        <v>0.3172144388349389</v>
       </c>
       <c r="H12" t="n">
-        <v>1.384707580622397</v>
+        <v>1.72071900922102</v>
       </c>
       <c r="I12" t="n">
-        <v>0.887601962695844</v>
+        <v>0.2610253876798156</v>
       </c>
       <c r="J12" t="n">
-        <v>1.432585661425297</v>
+        <v>1.535202490039794</v>
       </c>
       <c r="K12" t="n">
-        <v>1.160093739780861</v>
+        <v>0.8981137589149105</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3040079711965356</v>
+        <v>0.9263626124649115</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6133072256989877</v>
+        <v>0.5632179319188434</v>
       </c>
       <c r="N12" t="n">
-        <v>1.040909280594473</v>
+        <v>1.034499962794086</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6394169840179725</v>
+        <v>0.5871952853024753</v>
       </c>
       <c r="P12" t="n">
-        <v>115.9555571389933</v>
+        <v>116.2963545412025</v>
       </c>
       <c r="Q12" t="n">
-        <v>185.4314791564808</v>
+        <v>185.7722765586899</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_11</t>
+          <t>model_40_7_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9433493830396021</v>
+        <v>0.9508951024969939</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7920348724718881</v>
+        <v>0.7413256144203877</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.331039269703335</v>
+        <v>0.9358878548118394</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3551729777246757</v>
+        <v>0.8688129912691005</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1652639434230447</v>
+        <v>0.8863942634870554</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3788229364662863</v>
+        <v>0.3283646757098637</v>
       </c>
       <c r="H13" t="n">
-        <v>1.390663765371846</v>
+        <v>1.729756807456892</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9096392195533661</v>
+        <v>0.2728681374414447</v>
       </c>
       <c r="J13" t="n">
-        <v>1.433124412959421</v>
+        <v>1.628464153621049</v>
       </c>
       <c r="K13" t="n">
-        <v>1.17138250850732</v>
+        <v>0.9506658327606839</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3009041535538279</v>
+        <v>0.9418222695114034</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6154859352302751</v>
+        <v>0.5730311297912738</v>
       </c>
       <c r="N13" t="n">
-        <v>1.041200448698471</v>
+        <v>1.035712652729459</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6416884457245573</v>
+        <v>0.597426251324455</v>
       </c>
       <c r="P13" t="n">
-        <v>115.9413727383399</v>
+        <v>116.2272609440385</v>
       </c>
       <c r="Q13" t="n">
-        <v>185.4172947558273</v>
+        <v>185.703182961526</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_12</t>
+          <t>model_40_7_14</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9429712983993119</v>
+        <v>0.9492521487174604</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7912097271883147</v>
+        <v>0.7399980323432561</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.42621252494036</v>
+        <v>0.9332974918574851</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3549275933686471</v>
+        <v>0.8618589123126026</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1579476375013822</v>
+        <v>0.8805775670126846</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3813511901968263</v>
+        <v>0.3393511151987108</v>
       </c>
       <c r="H14" t="n">
-        <v>1.396181515682546</v>
+        <v>1.738634354919625</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9296282614957383</v>
+        <v>0.2838929988398198</v>
       </c>
       <c r="J14" t="n">
-        <v>1.433669778303978</v>
+        <v>1.714787246217336</v>
       </c>
       <c r="K14" t="n">
-        <v>1.181649457821416</v>
+        <v>0.999340615984274</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2981114946206523</v>
+        <v>0.955832394452624</v>
       </c>
       <c r="M14" t="n">
-        <v>0.617536387751221</v>
+        <v>0.582538509627227</v>
       </c>
       <c r="N14" t="n">
-        <v>1.041475419345955</v>
+        <v>1.036907528205483</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6438261902543417</v>
+        <v>0.6073383800030142</v>
       </c>
       <c r="P14" t="n">
-        <v>115.9280691387353</v>
+        <v>116.1614399391179</v>
       </c>
       <c r="Q14" t="n">
-        <v>185.4039911562227</v>
+        <v>185.6373619566054</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_13</t>
+          <t>model_40_7_1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9426166240027996</v>
+        <v>0.9474659315664991</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7904482135307525</v>
+        <v>0.7387729525929936</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.512488052867142</v>
+        <v>0.9743313397309594</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3546868973489087</v>
+        <v>0.984768306144978</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1513007963917946</v>
+        <v>0.9821749406320345</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3837228995194305</v>
+        <v>0.3512955575119633</v>
       </c>
       <c r="H15" t="n">
-        <v>1.401273761017113</v>
+        <v>1.746826468850604</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9477485321750776</v>
+        <v>0.1092485596554917</v>
       </c>
       <c r="J15" t="n">
-        <v>1.434204723847625</v>
+        <v>0.1890756385238855</v>
       </c>
       <c r="K15" t="n">
-        <v>1.190976949249696</v>
+        <v>0.1491621411751924</v>
       </c>
       <c r="L15" t="n">
-        <v>0.295594741096758</v>
+        <v>0.6329151675442422</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6194537105542516</v>
+        <v>0.5927019128634252</v>
       </c>
       <c r="N15" t="n">
-        <v>1.0417333643616</v>
+        <v>1.038206595224364</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6458251374585028</v>
+        <v>0.6179344603561224</v>
       </c>
       <c r="P15" t="n">
-        <v>115.9156692054385</v>
+        <v>116.0922547312859</v>
       </c>
       <c r="Q15" t="n">
-        <v>185.3915912229259</v>
+        <v>185.5681767487734</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_14</t>
+          <t>model_40_7_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9422857719670704</v>
+        <v>0.9476583839665426</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7897476556474816</v>
+        <v>0.7387134005471823</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.590622966123295</v>
+        <v>0.9308965273724247</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3544525828951742</v>
+        <v>0.8554444945700985</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1452685058821651</v>
+        <v>0.8752094482038622</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3859353086057844</v>
+        <v>0.3500086274267109</v>
       </c>
       <c r="H16" t="n">
-        <v>1.405958394808317</v>
+        <v>1.747224693655156</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9641590463930809</v>
+        <v>0.2941117601241089</v>
       </c>
       <c r="J16" t="n">
-        <v>1.434725486396891</v>
+        <v>1.794411360381304</v>
       </c>
       <c r="K16" t="n">
-        <v>1.199442043735001</v>
+        <v>1.044261649854479</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2933381323746996</v>
+        <v>0.9685063281435633</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6212369182572656</v>
+        <v>0.5916152697714208</v>
       </c>
       <c r="N16" t="n">
-        <v>1.041973984023949</v>
+        <v>1.038066629842515</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6476842600051829</v>
+        <v>0.61680155661803</v>
       </c>
       <c r="P16" t="n">
-        <v>115.9041710356967</v>
+        <v>116.0995949500238</v>
       </c>
       <c r="Q16" t="n">
-        <v>185.3800930531841</v>
+        <v>185.5755169675112</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_15</t>
+          <t>model_40_7_16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9419786199538358</v>
+        <v>0.9461307065936672</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7891048036488664</v>
+        <v>0.737484581138099</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.661334166997095</v>
+        <v>0.9286792945506886</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3542288391737438</v>
+        <v>0.8495453590908255</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1397994401439988</v>
+        <v>0.8702701698556073</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3879892355325893</v>
+        <v>0.3602242130534359</v>
       </c>
       <c r="H17" t="n">
-        <v>1.410257149083119</v>
+        <v>1.755441814701889</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9790103736545238</v>
+        <v>0.3035485398257635</v>
       </c>
       <c r="J17" t="n">
-        <v>1.43522275555335</v>
+        <v>1.867639119427597</v>
       </c>
       <c r="K17" t="n">
-        <v>1.207116766652609</v>
+        <v>1.085594097566267</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2913018759709897</v>
+        <v>0.9799709886618743</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6228878193804959</v>
+        <v>0.6001868151279532</v>
       </c>
       <c r="N17" t="n">
-        <v>1.042197367306301</v>
+        <v>1.039177667931878</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6494054434070656</v>
+        <v>0.6257380104059351</v>
       </c>
       <c r="P17" t="n">
-        <v>115.8935553664329</v>
+        <v>116.0420572547257</v>
       </c>
       <c r="Q17" t="n">
-        <v>185.3694773839203</v>
+        <v>185.5179792722131</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_16</t>
+          <t>model_40_7_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9416944965285359</v>
+        <v>0.9446801957851512</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7885164047192039</v>
+        <v>0.7363199648067653</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.725300181892994</v>
+        <v>0.9266379486033796</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3540154690693911</v>
+        <v>0.8441337518571959</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1348436365994622</v>
+        <v>0.86573727270037</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3898891701858384</v>
+        <v>0.3699237855089703</v>
       </c>
       <c r="H18" t="n">
-        <v>1.414191775435099</v>
+        <v>1.763229609472082</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9924450234566785</v>
+        <v>0.3122367262041959</v>
       </c>
       <c r="J18" t="n">
-        <v>1.435696969404476</v>
+        <v>1.93481504239966</v>
       </c>
       <c r="K18" t="n">
-        <v>1.214071230332391</v>
+        <v>1.123525900846387</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2894747557081854</v>
+        <v>0.9903252432237091</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6244110586671558</v>
+        <v>0.6082136018776383</v>
       </c>
       <c r="N18" t="n">
-        <v>1.042404002524701</v>
+        <v>1.040232584883526</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6509935301436987</v>
+        <v>0.6341065140852935</v>
       </c>
       <c r="P18" t="n">
-        <v>115.8837855185112</v>
+        <v>115.9889165593452</v>
       </c>
       <c r="Q18" t="n">
-        <v>185.3597075359987</v>
+        <v>185.4648385768326</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_17</t>
+          <t>model_40_7_18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9414327212004551</v>
+        <v>0.9433136515500018</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7879788476774087</v>
+        <v>0.7352243298980209</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.783125392695709</v>
+        <v>0.9247640134160067</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3538154080648643</v>
+        <v>0.8391807949925828</v>
       </c>
       <c r="F19" t="n">
-        <v>0.130358497590259</v>
+        <v>0.8615870997348842</v>
       </c>
       <c r="G19" t="n">
-        <v>0.391639663010079</v>
+        <v>0.3790618731017725</v>
       </c>
       <c r="H19" t="n">
-        <v>1.417786421848807</v>
+        <v>1.770556125151791</v>
       </c>
       <c r="I19" t="n">
-        <v>1.004589932876697</v>
+        <v>0.3202123945079738</v>
       </c>
       <c r="J19" t="n">
-        <v>1.436141603856452</v>
+        <v>1.996297599144274</v>
       </c>
       <c r="K19" t="n">
-        <v>1.220365211935568</v>
+        <v>1.158255024211429</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2878258947472165</v>
+        <v>0.9996795917039067</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6258112039665629</v>
+        <v>0.6156800086910184</v>
       </c>
       <c r="N19" t="n">
-        <v>1.042594384581487</v>
+        <v>1.041226435236362</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6524532825272018</v>
+        <v>0.641890781294312</v>
       </c>
       <c r="P19" t="n">
-        <v>115.87482617791</v>
+        <v>115.9401116673149</v>
       </c>
       <c r="Q19" t="n">
-        <v>185.3507481953975</v>
+        <v>185.4160336848023</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_18</t>
+          <t>model_40_7_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9411921498105317</v>
+        <v>0.9420341127790259</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7874885685463998</v>
+        <v>0.7341998556975554</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.835377397650312</v>
+        <v>0.9230476447509757</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3536294322046389</v>
+        <v>0.8346558437255973</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1263007029527661</v>
+        <v>0.8577943850345122</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3932483650022259</v>
+        <v>0.3876181547550218</v>
       </c>
       <c r="H20" t="n">
-        <v>1.421064920655391</v>
+        <v>1.777406788847574</v>
       </c>
       <c r="I20" t="n">
-        <v>1.01556431339998</v>
+        <v>0.3275174428637163</v>
       </c>
       <c r="J20" t="n">
-        <v>1.436554934154816</v>
+        <v>2.052467192509142</v>
       </c>
       <c r="K20" t="n">
-        <v>1.226059502512839</v>
+        <v>1.189992895816548</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2863434741794694</v>
+        <v>1.008119331823594</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6270951801777987</v>
+        <v>0.6225898768491356</v>
       </c>
       <c r="N20" t="n">
-        <v>1.042769345592341</v>
+        <v>1.042157008887981</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6537919202639473</v>
+        <v>0.6490948168453192</v>
       </c>
       <c r="P20" t="n">
-        <v>115.8666277894145</v>
+        <v>115.8954691223384</v>
       </c>
       <c r="Q20" t="n">
-        <v>185.3425498069019</v>
+        <v>185.3713911398258</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_19</t>
+          <t>model_40_7_20</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9409715442332099</v>
+        <v>0.9408423382088663</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7870420893952376</v>
+        <v>0.7332467239872319</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.882575377957634</v>
+        <v>0.9214787414838793</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3534552169149995</v>
+        <v>0.8305287225132821</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1226306135843052</v>
+        <v>0.8543343453061872</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3947235555135716</v>
+        <v>0.3955875567932969</v>
       </c>
       <c r="H21" t="n">
-        <v>1.42405052879506</v>
+        <v>1.783780384983275</v>
       </c>
       <c r="I21" t="n">
-        <v>1.025477207580269</v>
+        <v>0.3341948627357537</v>
       </c>
       <c r="J21" t="n">
-        <v>1.436942126651514</v>
+        <v>2.103698400667037</v>
       </c>
       <c r="K21" t="n">
-        <v>1.231209727493539</v>
+        <v>1.218946905100563</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2850117439941757</v>
+        <v>1.015732895010059</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6282702885809353</v>
+        <v>0.628957515889028</v>
       </c>
       <c r="N21" t="n">
-        <v>1.042929786012211</v>
+        <v>1.043023754029915</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6550170554646149</v>
+        <v>0.6557335394619699</v>
       </c>
       <c r="P21" t="n">
-        <v>115.8591392371126</v>
+        <v>115.8547662674783</v>
       </c>
       <c r="Q21" t="n">
-        <v>185.3350612546</v>
+        <v>185.3306882849657</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_20</t>
+          <t>model_40_7_21</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9407697467998468</v>
+        <v>0.9397373593075959</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7866360311890596</v>
+        <v>0.7323637953352566</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.925180096778124</v>
+        <v>0.9200469279667975</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3532931199839701</v>
+        <v>0.8267707538692716</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1193138852593374</v>
+        <v>0.851182958415011</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3960729758796628</v>
+        <v>0.4029765557940518</v>
       </c>
       <c r="H22" t="n">
-        <v>1.426765841889499</v>
+        <v>1.789684532944546</v>
       </c>
       <c r="I22" t="n">
-        <v>1.034425388551119</v>
+        <v>0.3402888139898094</v>
       </c>
       <c r="J22" t="n">
-        <v>1.437302386164684</v>
+        <v>2.150347205959612</v>
       </c>
       <c r="K22" t="n">
-        <v>1.235864082022406</v>
+        <v>1.245318072043438</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2838134926183932</v>
+        <v>1.022601117026197</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6293432893736636</v>
+        <v>0.6348043444984067</v>
       </c>
       <c r="N22" t="n">
-        <v>1.043076547781929</v>
+        <v>1.043827375049021</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6561357361225075</v>
+        <v>0.6618292796698535</v>
       </c>
       <c r="P22" t="n">
-        <v>115.8523136043624</v>
+        <v>115.8177537858719</v>
       </c>
       <c r="Q22" t="n">
-        <v>185.3282356218498</v>
+        <v>185.2936758033593</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_40_7_21</t>
+          <t>model_40_7_0</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9405855084102257</v>
+        <v>0.9391703270706054</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7862671924148815</v>
+        <v>0.7318430393699035</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.963655717454246</v>
+        <v>0.975446811432809</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3531450105927103</v>
+        <v>0.9924332938633633</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1163178681928013</v>
+        <v>0.9881437664782251</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3973049788393992</v>
+        <v>0.4067683029737506</v>
       </c>
       <c r="H23" t="n">
-        <v>1.429232268470773</v>
+        <v>1.793166830482724</v>
       </c>
       <c r="I23" t="n">
-        <v>1.042506343579277</v>
+        <v>0.1045009929540653</v>
       </c>
       <c r="J23" t="n">
-        <v>1.437631558449763</v>
+        <v>0.0939278197109695</v>
       </c>
       <c r="K23" t="n">
-        <v>1.240068383441134</v>
+        <v>0.09921432192025782</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2827363632464987</v>
+        <v>0.5975097240980678</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6303213298305866</v>
+        <v>0.6377838999016443</v>
       </c>
       <c r="N23" t="n">
-        <v>1.043210539338018</v>
+        <v>1.044239762130469</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6571554137865047</v>
+        <v>0.6649356809151369</v>
       </c>
       <c r="P23" t="n">
-        <v>115.8461021691054</v>
+        <v>115.7990230716076</v>
       </c>
       <c r="Q23" t="n">
-        <v>185.3220241865928</v>
+        <v>185.274945089095</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9404176027795889</v>
+        <v>0.9387165018580845</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7859325080728635</v>
+        <v>0.7315488370838195</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.998358876973913</v>
+        <v>0.9187427540788651</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3530094166627147</v>
+        <v>0.8233528916622221</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1136130471774325</v>
+        <v>0.8483161516042368</v>
       </c>
       <c r="G24" t="n">
-        <v>0.398427764564602</v>
+        <v>0.4098030342595509</v>
       </c>
       <c r="H24" t="n">
-        <v>1.431470304206928</v>
+        <v>1.795134162524445</v>
       </c>
       <c r="I24" t="n">
-        <v>1.049794976393651</v>
+        <v>0.3458395173496092</v>
       </c>
       <c r="J24" t="n">
-        <v>1.43793291519291</v>
+        <v>2.192774166830512</v>
       </c>
       <c r="K24" t="n">
-        <v>1.243864050348155</v>
+        <v>1.269307840234573</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2817659260434953</v>
+        <v>1.028793955095734</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6312113469865716</v>
+        <v>0.6401586008635289</v>
       </c>
       <c r="N24" t="n">
-        <v>1.043332652523935</v>
+        <v>1.044569816830484</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6580833208154094</v>
+        <v>0.6674114778132776</v>
       </c>
       <c r="P24" t="n">
-        <v>115.8404581310555</v>
+        <v>115.7841572779197</v>
       </c>
       <c r="Q24" t="n">
-        <v>185.3163801485429</v>
+        <v>185.2600792954072</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9402647175569803</v>
+        <v>0.9377764632535299</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7856290353658464</v>
+        <v>0.7307988718458451</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.029678965645295</v>
+        <v>0.9175562207955018</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3528846954901363</v>
+        <v>0.8202478199881711</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1111707858863173</v>
+        <v>0.8457115381738907</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3994501087521574</v>
+        <v>0.4160890767366869</v>
       </c>
       <c r="H25" t="n">
-        <v>1.433499627596114</v>
+        <v>1.800149183524051</v>
       </c>
       <c r="I25" t="n">
-        <v>1.056373069835258</v>
+        <v>0.3508895297317155</v>
       </c>
       <c r="J25" t="n">
-        <v>1.43821010729414</v>
+        <v>2.231318363885789</v>
       </c>
       <c r="K25" t="n">
-        <v>1.247291268011842</v>
+        <v>1.291103544146915</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2808926243326194</v>
+        <v>1.03437412191118</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6320206553208189</v>
+        <v>0.6450496699764189</v>
       </c>
       <c r="N25" t="n">
-        <v>1.043443841776742</v>
+        <v>1.04525348127016</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6589270830809448</v>
+        <v>0.6725107698642122</v>
       </c>
       <c r="P25" t="n">
-        <v>115.8353328115988</v>
+        <v>115.7537118297437</v>
       </c>
       <c r="Q25" t="n">
-        <v>185.3112548290862</v>
+        <v>185.2296338472311</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9401256848679926</v>
+        <v>0.9369130952845757</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7853541247043471</v>
+        <v>0.7301106207547442</v>
       </c>
       <c r="D26" t="n">
-        <v>-4.057911605164386</v>
+        <v>0.9164778625978705</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3527693398833968</v>
+        <v>0.8174298655751761</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1089662802599846</v>
+        <v>0.8433472175618069</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4003798209836043</v>
+        <v>0.4218624223205282</v>
       </c>
       <c r="H26" t="n">
-        <v>1.435337956455407</v>
+        <v>1.804751521739348</v>
       </c>
       <c r="I26" t="n">
-        <v>1.062302712717448</v>
+        <v>0.3554791373952684</v>
       </c>
       <c r="J26" t="n">
-        <v>1.438466484478221</v>
+        <v>2.266298487241706</v>
       </c>
       <c r="K26" t="n">
-        <v>1.250384843891601</v>
+        <v>1.310888450196477</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2801059068465653</v>
+        <v>1.039402040449718</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6327557356386462</v>
+        <v>0.6495093704639897</v>
       </c>
       <c r="N26" t="n">
-        <v>1.043544956459642</v>
+        <v>1.045881385247581</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6596934572897281</v>
+        <v>0.6771603290343916</v>
       </c>
       <c r="P26" t="n">
-        <v>115.8306832599098</v>
+        <v>115.7261520631171</v>
       </c>
       <c r="Q26" t="n">
-        <v>185.3066052773972</v>
+        <v>185.2020740806045</v>
       </c>
     </row>
   </sheetData>
